--- a/comparison_results/PSO_PID_No_Disturbance_Test_7.xlsx
+++ b/comparison_results/PSO_PID_No_Disturbance_Test_7.xlsx
@@ -545,64 +545,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03384844527153438</v>
+        <v>0.03475491563558485</v>
       </c>
       <c r="C2" t="n">
-        <v>1.021021021021021</v>
+        <v>1.071071071071071</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8332309024517426</v>
+        <v>0.5826677812669628</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6806806806806807</v>
+        <v>0.7007007007007007</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01249227453482799</v>
+        <v>0.01356755264143497</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05102743237872957</v>
+        <v>0.05534301205376575</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4787764262388676</v>
+        <v>0.4995803476297466</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1441566975952931</v>
+        <v>0.1463573193238809</v>
       </c>
       <c r="J2" t="n">
-        <v>11.65333431974131</v>
+        <v>11.17988401064447</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9687774081472162</v>
+        <v>0.9682250086227692</v>
       </c>
       <c r="L2" t="n">
-        <v>4.979234677476237</v>
+        <v>4.98700952940537</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5610717730127578</v>
+        <v>1.117778743989966</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02246441954468781</v>
+        <v>0.001</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4475420060961875</v>
+        <v>0.1</v>
       </c>
       <c r="P2" t="n">
-        <v>1.848000583892121</v>
+        <v>0.7500422510625562</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.07235487463752181</v>
+        <v>0.06091824803139583</v>
       </c>
       <c r="R2" t="n">
-        <v>1.560339164060631</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>9.033982364778439</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06360149445499109</v>
+        <v>0.08546210877341816</v>
       </c>
       <c r="U2" t="n">
-        <v>1.889871057094348</v>
+        <v>0.742715071800035</v>
       </c>
     </row>
     <row r="3">
@@ -610,64 +610,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03479900040979744</v>
+        <v>0.03251290777244743</v>
       </c>
       <c r="C3" t="n">
-        <v>1.101101101101101</v>
+        <v>1.001001001001001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3388095239100219</v>
+        <v>0.6537753184999578</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7307307307307307</v>
+        <v>0.6606606606606606</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01148095492197456</v>
+        <v>0.008592010662325945</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05475776966048562</v>
+        <v>0.04635559160394209</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4920528179353941</v>
+        <v>0.4497333194522237</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1475067735382977</v>
+        <v>0.1428559185562787</v>
       </c>
       <c r="J3" t="n">
-        <v>11.00805820583568</v>
+        <v>11.88782753765856</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9710742980351389</v>
+        <v>0.973228641917947</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>6.260647270003206</v>
+        <v>0.8275289308903251</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09612613729254398</v>
+        <v>0.05905663105555722</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1</v>
+        <v>0.6713125711286654</v>
       </c>
       <c r="P3" t="n">
-        <v>6.2000214658567</v>
+        <v>1.215517920612656</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328084706538577</v>
+        <v>0.02149322941770075</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1</v>
+        <v>1.533306239864691</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>0.8124305462369977</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03088687956714435</v>
+        <v>0.003957036283278379</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1000278337501789</v>
+        <v>0.6326259243653878</v>
       </c>
     </row>
     <row r="4">
@@ -675,64 +675,64 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06724189738596893</v>
+        <v>0.03590623122142104</v>
       </c>
       <c r="C4" t="n">
-        <v>2.012012012012012</v>
+        <v>1.091091091091091</v>
       </c>
       <c r="D4" t="n">
-        <v>4.953934792392145</v>
+        <v>0.7927477324567306</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004409411088240117</v>
+        <v>0.01443066937397475</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03197056477852889</v>
+        <v>0.05730631639986375</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3517525824636487</v>
+        <v>0.5088442424802098</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1320294976522464</v>
+        <v>0.1473354757164485</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>11.02538982356017</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9846309330683691</v>
+        <v>0.9676080591515495</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>9.998878538356522</v>
+        <v>8.499712575360821</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02018553074377642</v>
+        <v>0.03310808631254368</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>0.3837434320170183</v>
       </c>
       <c r="P4" t="n">
-        <v>4.821339296670915</v>
+        <v>7.447255330202146</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.09876995127952866</v>
+        <v>0.001</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5162076289040241</v>
+        <v>1.435308691853812</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1</v>
+        <v>4.813205178821873</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05382472939658876</v>
+        <v>0.001284675827123345</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9667330118497027</v>
+        <v>1.636087862314358</v>
       </c>
     </row>
     <row r="5">
@@ -740,64 +740,64 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0631722664002642</v>
+        <v>0.03105889364806367</v>
       </c>
       <c r="C5" t="n">
-        <v>1.921921921921922</v>
+        <v>0.9309309309309309</v>
       </c>
       <c r="D5" t="n">
-        <v>4.218529716086189</v>
+        <v>0.9310813053439448</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5105105105105106</v>
+        <v>0.6106106106106106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003076122128211256</v>
+        <v>0.007787352129967131</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03210967264099288</v>
+        <v>0.04069160869121953</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3533876559036573</v>
+        <v>0.420356725437955</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1319731305820045</v>
+        <v>0.1389234219880575</v>
       </c>
       <c r="J5" t="n">
-        <v>14.99999517459785</v>
+        <v>12.90903156738111</v>
       </c>
       <c r="K5" t="n">
-        <v>0.985986450094144</v>
+        <v>0.9737888824517146</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.985548755710826</v>
       </c>
       <c r="M5" t="n">
-        <v>3.221444497399587</v>
+        <v>0.9422343316541274</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02623081177811587</v>
+        <v>0.06440246979503626</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0.5218412457175445</v>
       </c>
       <c r="P5" t="n">
-        <v>8.992547143824735</v>
+        <v>2.725182968282977</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04705342548110654</v>
+        <v>0.04163265622270401</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8420533805877488</v>
+        <v>0.1309180102801993</v>
       </c>
       <c r="S5" t="n">
-        <v>7.480041362799402</v>
+        <v>0.9761665317030439</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05422719428383428</v>
+        <v>0.01008481852766895</v>
       </c>
       <c r="U5" t="n">
-        <v>1.938900854233026</v>
+        <v>0.9564844987870885</v>
       </c>
     </row>
     <row r="6">
@@ -805,64 +805,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06341952223605297</v>
+        <v>0.02759761002292697</v>
       </c>
       <c r="C6" t="n">
-        <v>1.921921921921922</v>
+        <v>0.8908908908908909</v>
       </c>
       <c r="D6" t="n">
-        <v>4.319408182094183</v>
+        <v>0.05175220489372911</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5105105105105106</v>
+        <v>0.5905905905905906</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003821006975975933</v>
+        <v>0.006900058493293071</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03161583389966616</v>
+        <v>0.03727547081400973</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3531899650616912</v>
+        <v>0.400766390748026</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1319235269408922</v>
+        <v>0.1363452388618009</v>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>13.63063603717673</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9821790457357191</v>
+        <v>0.975406863666324</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1</v>
+        <v>1.621781029104927</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01848947150046363</v>
+        <v>0.05589293397383228</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>0.1522019812672018</v>
       </c>
       <c r="P6" t="n">
-        <v>9.60602427889212</v>
+        <v>1.021568554607429</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.08580898925560208</v>
+        <v>0.03822565882794774</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8995206970832872</v>
+        <v>0.1633543434309672</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>0.1237159085307885</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0125739399575358</v>
+        <v>0.002643485890682649</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1</v>
+        <v>0.2615010124580614</v>
       </c>
     </row>
     <row r="7">
@@ -870,64 +870,64 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06377953943411732</v>
+        <v>0.0317542030605354</v>
       </c>
       <c r="C7" t="n">
-        <v>1.951951951951952</v>
+        <v>0.970970970970971</v>
       </c>
       <c r="D7" t="n">
-        <v>4.209557126241603</v>
+        <v>0.594804224658102</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5205205205205206</v>
+        <v>0.6406406406406406</v>
       </c>
       <c r="F7" t="n">
-        <v>2.587089057308756e-06</v>
+        <v>0.01205422366250397</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03172729035032699</v>
+        <v>0.04709093618319395</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3438569094370314</v>
+        <v>0.4605970834959925</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1322779284634105</v>
+        <v>0.1412948503862724</v>
       </c>
       <c r="J7" t="n">
-        <v>14.89444938810574</v>
+        <v>12.39401506077243</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9835051599190966</v>
+        <v>0.9686254977605703</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>6.575334919781598</v>
       </c>
       <c r="N7" t="n">
+        <v>0.002664837648769881</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.8256785627065349</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.9784351767716123</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.04491103690602198</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.2943250142812167</v>
+      </c>
+      <c r="S7" t="n">
         <v>0.1</v>
       </c>
-      <c r="O7" t="n">
-        <v>0.8230608771793539</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.634401266480638</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.08993107124726246</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.7530595868285856</v>
-      </c>
-      <c r="S7" t="n">
-        <v>10</v>
-      </c>
       <c r="T7" t="n">
-        <v>0.07931296907655754</v>
+        <v>0.001026905677243594</v>
       </c>
       <c r="U7" t="n">
-        <v>1.965712254815369</v>
+        <v>1.948022483904532</v>
       </c>
     </row>
     <row r="8">
@@ -935,64 +935,64 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03193293921400817</v>
+        <v>0.06786152439008807</v>
       </c>
       <c r="C8" t="n">
-        <v>1.021021021021021</v>
+        <v>2.012012012012012</v>
       </c>
       <c r="D8" t="n">
-        <v>0.190918496587214</v>
+        <v>5.138024142723283</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6706706706706707</v>
+        <v>0.5205205205205206</v>
       </c>
       <c r="F8" t="n">
-        <v>0.009972691985762039</v>
+        <v>0.003337044784114782</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04732570044875355</v>
+        <v>0.03214034932591433</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4554791155816669</v>
+        <v>0.3644369589079976</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1430680964717185</v>
+        <v>0.1319835394354779</v>
       </c>
       <c r="J8" t="n">
-        <v>11.95477995868063</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9714848049280547</v>
+        <v>0.9814287455537496</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>9.439275050961067</v>
+        <v>0.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1</v>
+        <v>0.09879557068757133</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1726972397899064</v>
+        <v>1.970242499105252</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7177357825934213</v>
+        <v>0.653196147934805</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.05027453650749459</v>
+        <v>0.09740951707411211</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5445814244256162</v>
+        <v>1.972673968823543</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1</v>
+        <v>3.593281974943751</v>
       </c>
       <c r="T8" t="n">
-        <v>0.07424774190191281</v>
+        <v>0.09998927044647628</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5191928897606062</v>
+        <v>1.855283128181931</v>
       </c>
     </row>
     <row r="9">
@@ -1000,64 +1000,64 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06869626377112016</v>
+        <v>0.03320974671912649</v>
       </c>
       <c r="C9" t="n">
-        <v>2.082082082082082</v>
+        <v>0.970970970970971</v>
       </c>
       <c r="D9" t="n">
-        <v>4.7731643007983</v>
+        <v>1.227116003568035</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5505505505505506</v>
+        <v>0.6506506506506506</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001537508539401268</v>
+        <v>0.010330441961655</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03423036740829787</v>
+        <v>0.04600035830207082</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3632119304024699</v>
+        <v>0.4510144515537418</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1351473727173917</v>
+        <v>0.1420442791428799</v>
       </c>
       <c r="J9" t="n">
-        <v>13.80887963079116</v>
+        <v>12.11361338686704</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9854666973385028</v>
+        <v>0.9715988285061203</v>
       </c>
       <c r="L9" t="n">
-        <v>4.999998883751622</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1001619904177577</v>
+        <v>0.7180177414571508</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1</v>
+        <v>0.07655463654755094</v>
       </c>
       <c r="O9" t="n">
-        <v>1.692844389670555</v>
+        <v>1.361071078460934</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4570738042713273</v>
+        <v>0.6416672216299775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.005682945950215226</v>
+        <v>0.01306014993104413</v>
       </c>
       <c r="R9" t="n">
-        <v>1.20809427671631</v>
+        <v>0.2267490838581615</v>
       </c>
       <c r="S9" t="n">
-        <v>9.638049943851833</v>
+        <v>10</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0500194248246695</v>
+        <v>0.001</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1137768328487504</v>
+        <v>1.185378100961934</v>
       </c>
     </row>
     <row r="10">
@@ -1065,61 +1065,61 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03499904187981944</v>
+        <v>0.03230923026598348</v>
       </c>
       <c r="C10" t="n">
-        <v>1.041041041041041</v>
+        <v>1.031031031031031</v>
       </c>
       <c r="D10" t="n">
-        <v>1.013041772451304</v>
+        <v>0.2491832913579101</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6906906906906907</v>
+        <v>0.6806806806806807</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01402758991989096</v>
+        <v>0.008670800045962664</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05372352322921143</v>
+        <v>0.04759340071351113</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4937435045215276</v>
+        <v>0.4538023406596295</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1450728225290872</v>
+        <v>0.1439326360445183</v>
       </c>
       <c r="J10" t="n">
-        <v>11.51623897078918</v>
+        <v>11.67174597605519</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9673047819054353</v>
+        <v>0.9734372844059926</v>
       </c>
       <c r="L10" t="n">
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>3.203288258143605</v>
+        <v>9.802801314354328</v>
       </c>
       <c r="N10" t="n">
-        <v>0.09935303590246737</v>
+        <v>0.04969972227173156</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>0.1084927467388028</v>
       </c>
       <c r="P10" t="n">
-        <v>3.579058233542174</v>
+        <v>0.5238634759665193</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.04455365188039447</v>
+        <v>0.0577854794262276</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>0.7916025431766961</v>
       </c>
       <c r="S10" t="n">
-        <v>7.595802313200007</v>
+        <v>0.3340905430585646</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0387231612172812</v>
+        <v>0.0832831435256017</v>
       </c>
       <c r="U10" t="n">
         <v>0.1</v>
@@ -1130,64 +1130,64 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03223779833337112</v>
+        <v>0.06231290970479502</v>
       </c>
       <c r="C11" t="n">
-        <v>1.011011011011011</v>
+        <v>1.871871871871872</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3264711806275911</v>
+        <v>4.447026345508087</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6706706706706707</v>
+        <v>0.5105105105105106</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01269536742509396</v>
+        <v>6.77864756744273e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04959458865237273</v>
+        <v>0.03070413855342549</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4718697730611999</v>
+        <v>0.3396021081168702</v>
       </c>
       <c r="I11" t="n">
-        <v>0.142956027360346</v>
+        <v>0.1317249521061953</v>
       </c>
       <c r="J11" t="n">
-        <v>12.03335427872485</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9682469018182069</v>
+        <v>0.9836142408524388</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9447239382666884</v>
+        <v>5.062445373375928</v>
       </c>
       <c r="N11" t="n">
-        <v>0.06542689419604984</v>
+        <v>0.001</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7401617856611938</v>
+        <v>0.1781357017898923</v>
       </c>
       <c r="P11" t="n">
         <v>10</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.05571883074425142</v>
+        <v>0.08241010085301628</v>
       </c>
       <c r="R11" t="n">
+        <v>0.9296260027655959</v>
+      </c>
+      <c r="S11" t="n">
         <v>0.1</v>
       </c>
-      <c r="S11" t="n">
-        <v>6.445759375873787</v>
-      </c>
       <c r="T11" t="n">
-        <v>0.001226087518945975</v>
+        <v>0.0770645085622509</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1195,64 +1195,64 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03328329947710875</v>
+        <v>0.03494312099941958</v>
       </c>
       <c r="C12" t="n">
-        <v>1.001001001001001</v>
+        <v>1.101101101101101</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8711679023540309</v>
+        <v>0.4923051382153959</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6706706706706707</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01140041102900526</v>
+        <v>0.009038401990167316</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04881143414908239</v>
+        <v>0.05262794137900865</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4669038020362585</v>
+        <v>0.4737352735566815</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1433662574454115</v>
+        <v>0.1471445169569882</v>
       </c>
       <c r="J12" t="n">
-        <v>11.82664474005172</v>
+        <v>10.8954768073358</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9702960835241677</v>
+        <v>0.975153920865222</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4.983574387252159</v>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>5.904060422063714</v>
       </c>
       <c r="N12" t="n">
-        <v>0.001</v>
+        <v>0.09999131194773009</v>
       </c>
       <c r="O12" t="n">
-        <v>0.923123643362205</v>
+        <v>1.031907391119437</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7360733229017126</v>
+        <v>0.1663018812903353</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01771099598517915</v>
+        <v>0.05989169251343539</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1601738085530097</v>
+        <v>1.963370707825201</v>
       </c>
       <c r="S12" t="n">
-        <v>5.087176950737093</v>
+        <v>1.168864419428106</v>
       </c>
       <c r="T12" t="n">
-        <v>0.06657788814912775</v>
+        <v>0.01376211584991047</v>
       </c>
       <c r="U12" t="n">
-        <v>1.455012148439462</v>
+        <v>1.130080150164266</v>
       </c>
     </row>
     <row r="13">
@@ -1260,64 +1260,64 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03562611179511162</v>
+        <v>0.03235293872037177</v>
       </c>
       <c r="C13" t="n">
-        <v>1.061061061061061</v>
+        <v>0.980980980980981</v>
       </c>
       <c r="D13" t="n">
-        <v>1.082239486794701</v>
+        <v>0.7914086377723978</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7007007007007007</v>
+        <v>0.6406406406406406</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01289518416376233</v>
+        <v>0.0103714686725082</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0534043449804526</v>
+        <v>0.04514760184466661</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4901571861356866</v>
+        <v>0.4499323673754333</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1458321054749449</v>
+        <v>0.1410196617256978</v>
       </c>
       <c r="J13" t="n">
-        <v>11.30553034432353</v>
+        <v>12.47320140295714</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9689087712831198</v>
+        <v>0.9704674104774942</v>
       </c>
       <c r="L13" t="n">
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>9.849633216209014</v>
+        <v>1.4676689954693</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001407097936342649</v>
+        <v>0.0690580017183082</v>
       </c>
       <c r="O13" t="n">
-        <v>1.460834188327636</v>
+        <v>0.4663410362302591</v>
       </c>
       <c r="P13" t="n">
-        <v>4.140078573084752</v>
+        <v>4.542259843333476</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.08101706429272394</v>
+        <v>0.04072753133347101</v>
       </c>
       <c r="R13" t="n">
-        <v>1.597797938449304</v>
+        <v>0.2105899455478679</v>
       </c>
       <c r="S13" t="n">
-        <v>1.324389871196016</v>
+        <v>0.7125705413796058</v>
       </c>
       <c r="T13" t="n">
-        <v>0.09693267262561851</v>
+        <v>0.1</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>0.6381853949066189</v>
       </c>
     </row>
     <row r="14">
@@ -1325,64 +1325,64 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03307105529144457</v>
+        <v>0.0338476648327973</v>
       </c>
       <c r="C14" t="n">
-        <v>1.001001001001001</v>
+        <v>1.071071071071071</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9610740057414274</v>
+        <v>0.3043712823534855</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6706706706706707</v>
+        <v>0.7007007007007007</v>
       </c>
       <c r="F14" t="n">
-        <v>0.006161846652694663</v>
+        <v>0.0114807881486904</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04515550522271741</v>
+        <v>0.05262540333757525</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4334054180761913</v>
+        <v>0.4837466266759147</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1434969456977417</v>
+        <v>0.1459078751003563</v>
       </c>
       <c r="J14" t="n">
-        <v>11.67044723004465</v>
+        <v>11.25840873934313</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9762345808174215</v>
+        <v>0.9701127273938563</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4.952758059436467</v>
       </c>
       <c r="M14" t="n">
-        <v>1.110748406687099</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02603162370023115</v>
+        <v>0.09762171333130658</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1</v>
+        <v>0.1816233599833642</v>
       </c>
       <c r="P14" t="n">
-        <v>9.98887102698434</v>
+        <v>0.4411864516987837</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0268697261152252</v>
+        <v>0.0284101135843602</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1258867072804454</v>
+        <v>0.5391253518556202</v>
       </c>
       <c r="S14" t="n">
-        <v>9.533975391030664</v>
+        <v>6.66145584955662</v>
       </c>
       <c r="T14" t="n">
         <v>0.1</v>
       </c>
       <c r="U14" t="n">
-        <v>0.100007403975807</v>
+        <v>1.892754990428744</v>
       </c>
     </row>
     <row r="15">
@@ -1390,64 +1390,64 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03400391518680958</v>
+        <v>0.03572723535427429</v>
       </c>
       <c r="C15" t="n">
-        <v>1.111111111111111</v>
+        <v>1.091091091091091</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003591836850391772</v>
+        <v>0.7314384119409961</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008124130755878801</v>
+        <v>0.01439370453894227</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05294210165487086</v>
+        <v>0.05676592085303039</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4761957846905172</v>
+        <v>0.5070025954303498</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1481037127731597</v>
+        <v>0.1469719520786399</v>
       </c>
       <c r="J15" t="n">
-        <v>10.73902657313545</v>
+        <v>11.09908954252058</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9750106133646183</v>
+        <v>0.9676152599058893</v>
       </c>
       <c r="L15" t="n">
-        <v>4.993592911588184</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>6.005306934552864</v>
+        <v>3.531209170148257</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0645683184085185</v>
+        <v>0.09915377572338253</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1000042420609044</v>
+        <v>1.816047396203931</v>
       </c>
       <c r="P15" t="n">
-        <v>10</v>
+        <v>5.240093397574042</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.07210049246826214</v>
+        <v>0.003612307918822822</v>
       </c>
       <c r="R15" t="n">
-        <v>1.117333945510013</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>7.334282454792096</v>
+        <v>0.1</v>
       </c>
       <c r="T15" t="n">
-        <v>0.05462009465477837</v>
+        <v>0.09608027163076854</v>
       </c>
       <c r="U15" t="n">
-        <v>1.999989601006203</v>
+        <v>1.631719912228256</v>
       </c>
     </row>
     <row r="16">
@@ -1455,64 +1455,64 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03595543431034056</v>
+        <v>0.03467071121062537</v>
       </c>
       <c r="C16" t="n">
-        <v>1.101101101101101</v>
+        <v>1.051051051051051</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7262932058080679</v>
+        <v>0.8084092872497201</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7307307307307307</v>
+        <v>0.6906906906906907</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01378734826368393</v>
+        <v>0.01261659608774817</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05684512245553376</v>
+        <v>0.05308664256497952</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5062358524812154</v>
+        <v>0.4886382802719915</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1475670349361691</v>
+        <v>0.1457356249851522</v>
       </c>
       <c r="J16" t="n">
-        <v>10.95999662046056</v>
+        <v>11.29791500407725</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9683816002867844</v>
+        <v>0.9693853566199919</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>4.930111768224168</v>
+        <v>8.548716753227083</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001229371570792791</v>
+        <v>0.009857084126264388</v>
       </c>
       <c r="O16" t="n">
-        <v>0.10000017092775</v>
+        <v>1.940796002136688</v>
       </c>
       <c r="P16" t="n">
-        <v>10</v>
+        <v>0.8200342368014615</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.09797690822711805</v>
+        <v>0.007214415781531233</v>
       </c>
       <c r="R16" t="n">
-        <v>1.999137353562249</v>
+        <v>0.142626077753936</v>
       </c>
       <c r="S16" t="n">
-        <v>5.705469206025644</v>
+        <v>2.161272592754416</v>
       </c>
       <c r="T16" t="n">
-        <v>0.09987233017990522</v>
+        <v>0.001</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2460810926709186</v>
+        <v>0.1854969294749556</v>
       </c>
     </row>
     <row r="17">
@@ -1520,64 +1520,64 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03525151800994891</v>
+        <v>0.03577825991664171</v>
       </c>
       <c r="C17" t="n">
-        <v>1.071071071071071</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7896069492139418</v>
+        <v>0.5280997850830582</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7107107107107107</v>
+        <v>0.7307307307307307</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01309518313475984</v>
+        <v>0.01424685775702361</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05489369255917434</v>
+        <v>0.0581877508310447</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4981004317873125</v>
+        <v>0.511143513760085</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1464734167863432</v>
+        <v>0.1480937895313261</v>
       </c>
       <c r="J17" t="n">
-        <v>11.2193234842078</v>
+        <v>10.89938922094633</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9688178363642621</v>
+        <v>0.9692955120846448</v>
       </c>
       <c r="L17" t="n">
-        <v>4.996060626474944</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>9.866167252401095</v>
+        <v>0.100550593866271</v>
       </c>
       <c r="N17" t="n">
-        <v>0.04670731386843471</v>
+        <v>0.001</v>
       </c>
       <c r="O17" t="n">
-        <v>1.706928362543707</v>
+        <v>1.439424460779308</v>
       </c>
       <c r="P17" t="n">
-        <v>8.576074077382847</v>
+        <v>6.753618058574986</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.08000538227456588</v>
+        <v>0.1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.135695016151325</v>
+        <v>0.1</v>
       </c>
       <c r="S17" t="n">
-        <v>7.138404892645114</v>
+        <v>9.741113164716952</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0191293874459404</v>
+        <v>0.07891053422712158</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1184768564290047</v>
+        <v>1.95613469716997</v>
       </c>
     </row>
     <row r="18">
@@ -1585,64 +1585,64 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03562833457267711</v>
+        <v>0.03544248440527611</v>
       </c>
       <c r="C18" t="n">
-        <v>1.071071071071071</v>
+        <v>1.081081081081081</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9512490881428137</v>
+        <v>0.7980563219358444</v>
       </c>
       <c r="E18" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01297448007850432</v>
+        <v>0.01267644587932355</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05476137199318802</v>
+        <v>0.05387984888877552</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4959702572461888</v>
+        <v>0.492073386317247</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1467008473532649</v>
+        <v>0.1461598196086828</v>
       </c>
       <c r="J18" t="n">
-        <v>11.13075178557041</v>
+        <v>11.32299997966261</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9690609104953049</v>
+        <v>0.9690765089500942</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>7.261419851229784</v>
+        <v>10</v>
       </c>
       <c r="N18" t="n">
-        <v>0.002419503908950753</v>
+        <v>0.1</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>0.1105550525619566</v>
       </c>
       <c r="P18" t="n">
-        <v>7.884877136025159</v>
+        <v>4.320699578086169</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04196397717188417</v>
+        <v>0.0983799636921653</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1</v>
+        <v>1.140652603483988</v>
       </c>
       <c r="S18" t="n">
-        <v>6.658486102312277</v>
+        <v>8.712038003116128</v>
       </c>
       <c r="T18" t="n">
-        <v>0.001</v>
+        <v>0.0997717189763902</v>
       </c>
       <c r="U18" t="n">
-        <v>1.242653056972991</v>
+        <v>1.999962836107247</v>
       </c>
     </row>
     <row r="19">
@@ -1650,64 +1650,64 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03451050780809413</v>
+        <v>0.03581402215688829</v>
       </c>
       <c r="C19" t="n">
-        <v>1.001001001001001</v>
+        <v>1.081081081081081</v>
       </c>
       <c r="D19" t="n">
-        <v>1.311053013347774</v>
+        <v>0.8759744415738485</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6706706706706707</v>
+        <v>0.7107107107107107</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01267954424327151</v>
+        <v>0.01432977818542621</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05015165055790362</v>
+        <v>0.0564225489079949</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4765673597528121</v>
+        <v>0.5051957025109337</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1434506908276909</v>
+        <v>0.1468105719299022</v>
       </c>
       <c r="J19" t="n">
-        <v>11.87687466994913</v>
+        <v>11.13222484053637</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9687306890530109</v>
+        <v>0.9675482973900978</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>6.962677046398224</v>
+        <v>6.475975272613092</v>
       </c>
       <c r="N19" t="n">
+        <v>0.001013506933420796</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.865410604431717</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6.687755681247594</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.09741160253874304</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.784498996843826</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.4750612924867744</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.09395348276865184</v>
+      </c>
+      <c r="U19" t="n">
         <v>0.1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.219186672226789</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.5948206619570492</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.07436472084473562</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.742491773784641</v>
-      </c>
-      <c r="S19" t="n">
-        <v>6.315642999315468</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.982240220057006</v>
       </c>
     </row>
     <row r="20">
@@ -1715,64 +1715,64 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03036519246144574</v>
+        <v>0.0327958252197726</v>
       </c>
       <c r="C20" t="n">
-        <v>0.980980980980981</v>
+        <v>1.071071071071071</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08435170386217328</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6406406406406406</v>
+        <v>0.7007007007007007</v>
       </c>
       <c r="F20" t="n">
-        <v>0.007796476598307988</v>
+        <v>0.009609728808292247</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04370901294422793</v>
+        <v>0.04945549011362129</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4328994890035716</v>
+        <v>0.4617416793942172</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1414786745566612</v>
+        <v>0.1451781074664314</v>
       </c>
       <c r="J20" t="n">
-        <v>12.18168141982908</v>
+        <v>11.40243743662407</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9758316462645225</v>
+        <v>0.9727173764424751</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8848417196687447</v>
+        <v>6.733202576176904</v>
       </c>
       <c r="N20" t="n">
-        <v>0.05648345778080616</v>
+        <v>0.05368876822194465</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4878438409676273</v>
+        <v>0.1117967383968343</v>
       </c>
       <c r="P20" t="n">
-        <v>0.5845985693806214</v>
+        <v>0.7574035532828213</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.006553913930161633</v>
+        <v>0.03867789464770453</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1000356743494187</v>
+        <v>0.477033308375241</v>
       </c>
       <c r="S20" t="n">
-        <v>6.073965615318991</v>
+        <v>1.052960606317209</v>
       </c>
       <c r="T20" t="n">
-        <v>0.06765649861776517</v>
+        <v>0.02615469422028898</v>
       </c>
       <c r="U20" t="n">
-        <v>1.589808869926369</v>
+        <v>1.162905877969514</v>
       </c>
     </row>
     <row r="21">
@@ -1780,64 +1780,64 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03558483446955349</v>
+        <v>0.03506495736238111</v>
       </c>
       <c r="C21" t="n">
-        <v>1.041041041041041</v>
+        <v>1.071071071071071</v>
       </c>
       <c r="D21" t="n">
-        <v>1.262667435711795</v>
+        <v>0.8435722070206375</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6906906906906907</v>
+        <v>0.7107107107107107</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01321670482891911</v>
+        <v>0.009552870947595396</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05338023382930211</v>
+        <v>0.05139283572507931</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4908190948081173</v>
+        <v>0.473782871154187</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1455233733020043</v>
+        <v>0.1463661253749914</v>
       </c>
       <c r="J21" t="n">
-        <v>11.41326661168627</v>
+        <v>11.23697132441118</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9684184908230162</v>
+        <v>0.9730021124042787</v>
       </c>
       <c r="L21" t="n">
         <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>5.579938530981185</v>
+        <v>6.944008865440044</v>
       </c>
       <c r="N21" t="n">
-        <v>0.001</v>
+        <v>0.09771637695032523</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="P21" t="n">
-        <v>8.091214244481188</v>
+        <v>10</v>
       </c>
       <c r="Q21" t="n">
         <v>0.1</v>
       </c>
       <c r="R21" t="n">
-        <v>0.5146090924616761</v>
+        <v>0.1</v>
       </c>
       <c r="S21" t="n">
-        <v>7.618638972530879</v>
+        <v>0.9932620929099734</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1</v>
+        <v>0.02907266689277771</v>
       </c>
       <c r="U21" t="n">
-        <v>1.987696794243163</v>
+        <v>0.105638192861412</v>
       </c>
     </row>
   </sheetData>
